--- a/excelSample/myLecUploadSample.xlsx
+++ b/excelSample/myLecUploadSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\graduation\excelSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22408514-C524-41E2-9BCD-D1E5DB8FE6F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4756AE2-25D5-4886-A756-01B00098B1DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>과목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -448,18 +444,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,9 +476,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
